--- a/pcbList/pcbList.xlsx
+++ b/pcbList/pcbList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="12000" windowHeight="16730"/>
+    <workbookView activeTab="0" windowWidth="19200" windowHeight="9260"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4" count="4">
   <si>
     <t>1.0</t>
-  </si>
-  <si>
-    <t>led_pixel_stm32f030</t>
   </si>
   <si>
     <t>0005</t>
@@ -34,9 +31,6 @@
   </si>
   <si>
     <t>https://github.com/prozessorkern/UsbDmx_ProzWare.git</t>
-  </si>
-  <si>
-    <t>https://github.com/prozessorkern/LedPixel/tree/master/stm32f030/pcb/led_pixel_stm32f030_cree</t>
   </si>
 </sst>
 </file>
@@ -125,47 +119,65 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="100" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -178,8 +190,8 @@
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -308,8 +320,10 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>led_pixel_stm32f030</t>
+        </is>
       </c>
       <c r="D7" s="4">
         <v>42868</v>
@@ -322,36 +336,36 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
       </c>
       <c r="D8" s="4">
         <v>43466</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="10">
         <v>1.1000000000000001</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4">
         <v>43498</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -371,8 +385,10 @@
       <c r="D10" s="4">
         <v>43435</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>5</v>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>https://github.com/prozessorkern/LedPixel/tree/master/stm32f030/pcb/led_pixel_stm32f030_cree</t>
+        </is>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -399,8 +415,27 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="1"/>
-      <c r="D12" s="4"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>arty sniff</t>
+        </is>
+      </c>
+      <c r="D12" s="4">
+        <v>44078.451388888891</v>
+      </c>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>https://git.shimatta.net/shimatta/arty_sniff</t>
+        </is>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="1"/>
@@ -577,6 +612,7 @@
     <hyperlink ref="E8:E9" r:id="rId5"/>
     <hyperlink ref="E10" r:id="rId6"/>
     <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
